--- a/resource/40.design/440.development/[Saturn]449crawling_insert/25글루코사민MSM2.xlsx
+++ b/resource/40.design/440.development/[Saturn]449crawling_insert/25글루코사민MSM2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ecommerce\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Business\Eclipse\com.github.ecommerce7th.saturn\resource\40.design\440.development\[Saturn]449crawling_insert\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -695,7 +695,7 @@
   <dimension ref="B2:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="P3" sqref="P3:P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -761,10 +761,10 @@
     </row>
     <row r="3" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B3" s="6">
-        <v>405</v>
+        <v>216</v>
       </c>
       <c r="C3" s="6">
-        <v>405</v>
+        <v>216</v>
       </c>
       <c r="D3" t="s">
         <v>36</v>
@@ -783,11 +783,11 @@
       </c>
       <c r="I3" s="11">
         <f ca="1">RANDBETWEEN(1, 5)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J3" s="3" t="str">
         <f ca="1">"TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - " &amp; RANDBETWEEN(0, 30) &amp; ", 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')"</f>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 12, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>23</v>
@@ -806,15 +806,15 @@
       </c>
       <c r="P3" s="4" t="str">
         <f ca="1">"INSERT INTO TB_SLE VALUES (" &amp; B3 &amp; ", " &amp; C3 &amp; ", '"&amp; D3 &amp; "', '"&amp; E3 &amp; "', '"&amp; F3 &amp; "', "&amp; G3 &amp; ", '"&amp; H3 &amp; "', '" &amp; I3 &amp; "', " &amp; J3 &amp; ", " &amp; K3 &amp; ",  " &amp; L3 &amp; ", " &amp; M3 &amp; ", " &amp; N3 &amp; ", " &amp; O3 &amp; "); "</f>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (405, 405, '솔가 스킨 네일 헤어 어드밴스드 MSM 120정', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/02/09/1000000336/1000000336_main_090.jpg', 31800, '1', '1', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 12, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (216, 216, '솔가 스킨 네일 헤어 어드밴스드 MSM 120정', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/02/09/1000000336/1000000336_main_090.jpg', 31800, '1', '5', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="4" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B4" s="6">
-        <v>406</v>
+        <v>217</v>
       </c>
       <c r="C4" s="6">
-        <v>406</v>
+        <v>217</v>
       </c>
       <c r="D4" t="s">
         <v>37</v>
@@ -837,7 +837,7 @@
       </c>
       <c r="J4" s="3" t="str">
         <f t="shared" ref="J4:J13" ca="1" si="0">"TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - " &amp; RANDBETWEEN(0, 30) &amp; ", 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')"</f>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 9, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>23</v>
@@ -856,15 +856,15 @@
       </c>
       <c r="P4" s="4" t="str">
         <f t="shared" ref="P4:P13" ca="1" si="1">"INSERT INTO TB_SLE VALUES (" &amp; B4 &amp; ", " &amp; C4 &amp; ", '"&amp; D4 &amp; "', '"&amp; E4 &amp; "', '"&amp; F4 &amp; "', "&amp; G4 &amp; ", '"&amp; H4 &amp; "', '" &amp; I4 &amp; "', " &amp; J4 &amp; ", " &amp; K4 &amp; ",  " &amp; L4 &amp; ", " &amp; M4 &amp; ", " &amp; N4 &amp; ", " &amp; O4 &amp; "); "</f>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (406, 406, '네이처스웨이 MSM 1000mg 퓨어옵티 200정', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/02/10/1000000341/1000000341_main_082.jpg', 23800, '1', '4', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 9, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (217, 217, '네이처스웨이 MSM 1000mg 퓨어옵티 200정', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/02/10/1000000341/1000000341_main_082.jpg', 23800, '1', '4', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B5" s="6">
-        <v>407</v>
+        <v>218</v>
       </c>
       <c r="C5" s="6">
-        <v>407</v>
+        <v>218</v>
       </c>
       <c r="D5" t="s">
         <v>38</v>
@@ -883,11 +883,11 @@
       </c>
       <c r="I5" s="11">
         <f t="shared" ref="I5:I13" ca="1" si="2">RANDBETWEEN(1, 5)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J5" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 9, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 18, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>23</v>
@@ -906,15 +906,15 @@
       </c>
       <c r="P5" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (407, 407, '솔가 L 글루타치온 250mg 60 베지캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/10/1000000550/1000000550_main_031.jpg', 46800, '1', '2', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 9, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (218, 218, '솔가 L 글루타치온 250mg 60 베지캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/10/1000000550/1000000550_main_031.jpg', 46800, '1', '4', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 18, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B6" s="6">
-        <v>408</v>
+        <v>219</v>
       </c>
       <c r="C6" s="6">
-        <v>408</v>
+        <v>219</v>
       </c>
       <c r="D6" t="s">
         <v>39</v>
@@ -933,11 +933,11 @@
       </c>
       <c r="I6" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J6" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>23</v>
@@ -956,15 +956,15 @@
       </c>
       <c r="P6" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (408, 408, '나우푸드 MSM 1000mg 240베지캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/07/06/1000000757/1000000757_main_044.jpg', 21200, '1', '5', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (219, 219, '나우푸드 MSM 1000mg 240베지캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/07/06/1000000757/1000000757_main_044.jpg', 21200, '1', '4', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B7" s="6">
-        <v>409</v>
+        <v>220</v>
       </c>
       <c r="C7" s="6">
-        <v>409</v>
+        <v>220</v>
       </c>
       <c r="D7" t="s">
         <v>40</v>
@@ -983,11 +983,11 @@
       </c>
       <c r="I7" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J7" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 6, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 29, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>23</v>
@@ -1006,15 +1006,15 @@
       </c>
       <c r="P7" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (409, 409, '컨트리라이프 글루코사민 콘드로이친 포뮬러 90캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/05/28/1000000391/1000000391_main_073.jpg', 35900, '1', '2', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 6, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (220, 220, '컨트리라이프 글루코사민 콘드로이친 포뮬러 90캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/05/28/1000000391/1000000391_main_073.jpg', 35900, '1', '3', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 29, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B8" s="6">
-        <v>410</v>
+        <v>221</v>
       </c>
       <c r="C8" s="6">
-        <v>410</v>
+        <v>221</v>
       </c>
       <c r="D8" t="s">
         <v>41</v>
@@ -1033,11 +1033,11 @@
       </c>
       <c r="I8" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J8" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>23</v>
@@ -1056,15 +1056,15 @@
       </c>
       <c r="P8" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (410, 410, '나우푸드 글루코사민 &amp; MSM 240베지캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/16/1000000903/1000000903_main_010.jpg', 32600, '1', '5', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (221, 221, '나우푸드 글루코사민 &amp; MSM 240베지캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/16/1000000903/1000000903_main_010.jpg', 32600, '1', '3', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B9" s="6">
-        <v>411</v>
+        <v>222</v>
       </c>
       <c r="C9" s="6">
-        <v>411</v>
+        <v>222</v>
       </c>
       <c r="D9" t="s">
         <v>42</v>
@@ -1083,11 +1083,11 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 23, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 26, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>23</v>
@@ -1106,15 +1106,15 @@
       </c>
       <c r="P9" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (411, 411, '소스내추럴스 글루코사민 콘드로이친 컴플렉스 위드 MSM 120정', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/05/04/1000001214/1000001214_main_095.jpg', 34800, '1', '1', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 23, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (222, 222, '소스내추럴스 글루코사민 콘드로이친 컴플렉스 위드 MSM 120정', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/05/04/1000001214/1000001214_main_095.jpg', 34800, '1', '2', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 26, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B10" s="6">
-        <v>412</v>
+        <v>223</v>
       </c>
       <c r="C10" s="6">
-        <v>412</v>
+        <v>223</v>
       </c>
       <c r="D10" t="s">
         <v>43</v>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="J10" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 29, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>23</v>
@@ -1156,15 +1156,15 @@
       </c>
       <c r="P10" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (412, 412, '나우푸드 MSM 1500mg 200정', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/06/23/1000002864/1000002864_main_088.jpg', 28900, '1', '5', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (223, 223, '나우푸드 MSM 1500mg 200정', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/06/23/1000002864/1000002864_main_088.jpg', 28900, '1', '5', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 29, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B11" s="6">
-        <v>413</v>
+        <v>224</v>
       </c>
       <c r="C11" s="6">
-        <v>413</v>
+        <v>224</v>
       </c>
       <c r="D11" t="s">
         <v>44</v>
@@ -1183,11 +1183,11 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 30, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 16, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>23</v>
@@ -1206,15 +1206,15 @@
       </c>
       <c r="P11" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (413, 413, '나우푸드 글루코사민 콘드로이친 120정', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/04/15/1000002827/1000002827_main_02.jpg', 37000, '1', '1', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 30, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (224, 224, '나우푸드 글루코사민 콘드로이친 120정', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/04/15/1000002827/1000002827_main_02.jpg', 37000, '1', '2', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 16, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="12" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B12" s="6">
-        <v>414</v>
+        <v>225</v>
       </c>
       <c r="C12" s="6">
-        <v>414</v>
+        <v>225</v>
       </c>
       <c r="D12" t="s">
         <v>45</v>
@@ -1233,11 +1233,11 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 13, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>23</v>
@@ -1256,15 +1256,15 @@
       </c>
       <c r="P12" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (414, 414, '소스내추럴스 MSM 1000mg 120정', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/05/04/1000001222/1000001222_main_054.jpg', 15200, '1', '1', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 13, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (225, 225, '소스내추럴스 MSM 1000mg 120정', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/05/04/1000001222/1000001222_main_054.jpg', 15200, '1', '2', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="13" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B13" s="6">
-        <v>415</v>
+        <v>226</v>
       </c>
       <c r="C13" s="6">
-        <v>415</v>
+        <v>226</v>
       </c>
       <c r="D13" t="s">
         <v>46</v>
@@ -1287,7 +1287,7 @@
       </c>
       <c r="J13" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 9, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 6, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>23</v>
@@ -1306,7 +1306,7 @@
       </c>
       <c r="P13" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (415, 415, '닥터스베스트 MSM 1,500mg 120정', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/04/15/1000002818/1000002818_main_052.jpg', 14500, '1', '4', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 9, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (226, 226, '닥터스베스트 MSM 1,500mg 120정', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/04/15/1000002818/1000002818_main_052.jpg', 14500, '1', '4', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 6, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
